--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{170F9173-D620-4855-9230-F14220861948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B77DFFE-D679-44CC-9F0B-C5B647891F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -211,7 +211,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,30 +526,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697B48D4-A4E4-4492-A7E5-73229A52F2B2}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44805</v>
       </c>
       <c r="B1" s="2">
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44806</v>
       </c>
@@ -559,8 +560,12 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2">
+        <f>B2-B1</f>
+        <v>4569411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44807</v>
       </c>
@@ -570,16 +575,27 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D4" si="0">B3-B2</f>
+        <v>1454256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44808</v>
       </c>
+      <c r="B4" s="2">
+        <v>8538897</v>
+      </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>915230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44809</v>
       </c>
@@ -587,7 +603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44810</v>
       </c>
@@ -595,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44811</v>
       </c>
@@ -603,7 +619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44812</v>
       </c>
@@ -611,7 +627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44813</v>
       </c>
@@ -619,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44814</v>
       </c>
@@ -627,7 +643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44815</v>
       </c>
@@ -635,7 +651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44816</v>
       </c>
@@ -643,7 +659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44817</v>
       </c>
@@ -651,7 +667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44818</v>
       </c>
@@ -659,7 +675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44819</v>
       </c>
@@ -667,7 +683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44820</v>
       </c>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B77DFFE-D679-44CC-9F0B-C5B647891F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED856BEB-4C5B-4456-86B0-0229DD61C335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Day 1</t>
   </si>
@@ -164,6 +164,21 @@
   </si>
   <si>
     <t>Day 42</t>
+  </si>
+  <si>
+    <t>(N+1)-N</t>
+  </si>
+  <si>
+    <t>Actual Money Spent</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Total Prize Pool</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -526,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697B48D4-A4E4-4492-A7E5-73229A52F2B2}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,374 +552,726 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>44805</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B2" s="2">
         <v>1600000</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="D2" s="2">
+        <f>1600000</f>
+        <v>1600000</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>44806</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>6169411</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <f>B2-B1</f>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f>B3-B2</f>
         <v>4569411</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="E3" s="2">
+        <f>D3*4+E2</f>
+        <v>18277644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>44807</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>7623667</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D4" si="0">B3-B2</f>
+      <c r="D4" s="2">
+        <f>B4-B3</f>
         <v>1454256</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E6" si="0">D4*4+E3</f>
+        <v>24094668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>44808</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>8538897</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
+        <f>B5-B4</f>
+        <v>915230</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>915230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+        <v>27755588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>44809</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" s="2">
+        <v>8987889</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="D6" s="2">
+        <f>B6-B5</f>
+        <v>448992</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>29551556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>44810</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:D44" si="1">B7-B6</f>
+        <v>-8987889</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ref="E7:E44" si="2">D7*4+E6</f>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>44811</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>44812</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>44813</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>44814</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>44815</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>44816</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>44817</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>44818</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>44819</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>44820</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>44821</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>44822</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>44823</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>44824</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>44825</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>44826</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>44827</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>44828</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>44829</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>44830</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>44831</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>44832</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>44833</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>44834</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>44835</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>44836</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>44837</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="D34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>44838</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="D35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>44839</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="D36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>44840</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="D37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>44841</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="D38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>44842</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="D39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>44843</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="D40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>44844</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="D41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>44845</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="D42" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>44846</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="D43" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>44847</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>42</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="2"/>
+        <v>-6400000</v>
       </c>
     </row>
   </sheetData>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED856BEB-4C5B-4456-86B0-0229DD61C335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339AAA34-428C-4129-AAB3-49C9DC811B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,16 +670,19 @@
       <c r="A7" s="1">
         <v>44810</v>
       </c>
+      <c r="B7" s="2">
+        <v>9397624</v>
+      </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7:D44" si="1">B7-B6</f>
-        <v>-8987889</v>
+        <v>409735</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E44" si="2">D7*4+E6</f>
-        <v>-6400000</v>
+        <v>31190496</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -691,7 +694,7 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-9397624</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339AAA34-428C-4129-AAB3-49C9DC811B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A37AF4D-13FD-4427-AABC-51042D07F6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
@@ -166,9 +166,6 @@
     <t>Day 42</t>
   </si>
   <si>
-    <t>(N+1)-N</t>
-  </si>
-  <si>
     <t>Actual Money Spent</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>(D+1)-D</t>
   </si>
 </sst>
 </file>
@@ -544,32 +544,32 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -689,16 +689,19 @@
       <c r="A8" s="1">
         <v>44811</v>
       </c>
+      <c r="B8" s="2">
+        <v>9657689</v>
+      </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>-9397624</v>
+        <v>260065</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>32230756</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,7 +713,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-9657689</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A37AF4D-13FD-4427-AABC-51042D07F6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B42124C-C124-4A33-AB23-111D31B44819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,16 +708,19 @@
       <c r="A9" s="1">
         <v>44812</v>
       </c>
+      <c r="B9" s="2">
+        <v>9877709</v>
+      </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>-9657689</v>
+        <v>220020</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>33110836</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -729,7 +732,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-9877709</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B42124C-C124-4A33-AB23-111D31B44819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99327C8-66F6-45C8-8EF1-072A4DA79EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,16 +727,19 @@
       <c r="A10" s="1">
         <v>44813</v>
       </c>
+      <c r="B10" s="2">
+        <v>10096391</v>
+      </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>-9877709</v>
+        <v>218682</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>33985564</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -748,7 +751,7 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-10096391</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99327C8-66F6-45C8-8EF1-072A4DA79EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22B02D7-BC86-4864-84F1-613F23240659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
+    <workbookView xWindow="7200" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,48 +746,57 @@
       <c r="A11" s="1">
         <v>44814</v>
       </c>
+      <c r="B11" s="2">
+        <v>10303297</v>
+      </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>-10096391</v>
+        <v>206906</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>34813188</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44815</v>
       </c>
+      <c r="B12" s="2">
+        <v>10506486</v>
+      </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>203189</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>35625944</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44816</v>
       </c>
+      <c r="B13" s="2">
+        <v>10704594</v>
+      </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>198108</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>36418376</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -799,7 +808,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-10704594</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22B02D7-BC86-4864-84F1-613F23240659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47176990-3989-4432-BA9D-9A3CBF55DC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,16 +803,19 @@
       <c r="A14" s="1">
         <v>44817</v>
       </c>
+      <c r="B14" s="2">
+        <v>10844471</v>
+      </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>-10704594</v>
+        <v>139877</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>36977884</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,7 +827,7 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-10844471</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47176990-3989-4432-BA9D-9A3CBF55DC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F1AB3C-AFCF-4F2C-A13C-585B27A766ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,16 +822,19 @@
       <c r="A15" s="1">
         <v>44818</v>
       </c>
+      <c r="B15" s="2">
+        <v>10973288</v>
+      </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>-10844471</v>
+        <v>128817</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>37493152</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -843,7 +846,7 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-10973288</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F1AB3C-AFCF-4F2C-A13C-585B27A766ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1991E116-0E9C-4D64-948E-EA43B6412F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,16 +841,19 @@
       <c r="A16" s="1">
         <v>44819</v>
       </c>
+      <c r="B16" s="2">
+        <v>11106309</v>
+      </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>-10973288</v>
+        <v>133021</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>38025236</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -862,7 +865,7 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-11106309</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1991E116-0E9C-4D64-948E-EA43B6412F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDB0CE6-9EA1-4EA7-92D7-20E28C332EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
+    <workbookView xWindow="31365" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,16 +860,19 @@
       <c r="A17" s="1">
         <v>44820</v>
       </c>
+      <c r="B17" s="2">
+        <v>11286850</v>
+      </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>-11106309</v>
+        <v>180541</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>38747400</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -881,7 +884,7 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-11286850</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDB0CE6-9EA1-4EA7-92D7-20E28C332EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A741279-9C48-4912-ACB9-0EE1B215C234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31365" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,16 +879,19 @@
       <c r="A18" s="1">
         <v>44821</v>
       </c>
+      <c r="B18" s="2">
+        <v>11507022</v>
+      </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>-11286850</v>
+        <v>220172</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>39628088</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -900,7 +903,7 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-11507022</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A741279-9C48-4912-ACB9-0EE1B215C234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03163878-1710-44E1-B5F6-780303234F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,32 +898,38 @@
       <c r="A19" s="1">
         <v>44822</v>
       </c>
+      <c r="B19" s="2">
+        <v>11656792</v>
+      </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>-11507022</v>
+        <v>149770</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>40227168</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44823</v>
       </c>
+      <c r="B20" s="2">
+        <v>11776832</v>
+      </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120040</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>40707328</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -935,7 +941,7 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-11776832</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03163878-1710-44E1-B5F6-780303234F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E3B1F8-53C5-42A6-B1C3-C12CAD905C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,16 +936,19 @@
       <c r="A21" s="1">
         <v>44824</v>
       </c>
+      <c r="B21" s="2">
+        <v>11880996</v>
+      </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>-11776832</v>
+        <v>104164</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>41123984</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,7 +960,7 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-11880996</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E3B1F8-53C5-42A6-B1C3-C12CAD905C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B8E391-D925-4CE3-898F-DC3C407D9F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,16 +955,19 @@
       <c r="A22" s="1">
         <v>44825</v>
       </c>
+      <c r="B22" s="2">
+        <v>11977072</v>
+      </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>-11880996</v>
+        <v>96076</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>41508288</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -976,7 +979,7 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-11977072</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B8E391-D925-4CE3-898F-DC3C407D9F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498FD69B-02E7-4F53-8DA7-6C638797FF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
+    <workbookView xWindow="31365" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697B48D4-A4E4-4492-A7E5-73229A52F2B2}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,16 +974,19 @@
       <c r="A23" s="1">
         <v>44826</v>
       </c>
+      <c r="B23" s="2">
+        <v>12069867</v>
+      </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>-11977072</v>
+        <v>92795</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>41879468</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,7 +998,7 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-12069867</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498FD69B-02E7-4F53-8DA7-6C638797FF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F964CF5-3575-40D1-B498-9F5A6AB70E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31365" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,16 +993,19 @@
       <c r="A24" s="1">
         <v>44827</v>
       </c>
+      <c r="B24" s="2">
+        <v>12154260</v>
+      </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>-12069867</v>
+        <v>84393</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>42217040</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,7 +1017,7 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-12154260</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F964CF5-3575-40D1-B498-9F5A6AB70E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33FA676-9E59-4B27-B23D-ECB3F3EE0BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,16 +1012,19 @@
       <c r="A25" s="1">
         <v>44828</v>
       </c>
+      <c r="B25" s="2">
+        <v>12247125</v>
+      </c>
       <c r="C25" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>-12154260</v>
+        <v>92865</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>42588500</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,7 +1036,7 @@
       </c>
       <c r="D26" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-12247125</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33FA676-9E59-4B27-B23D-ECB3F3EE0BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3F0E70-4C87-49DB-87A1-16E0C7865921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,16 +1031,19 @@
       <c r="A26" s="1">
         <v>44829</v>
       </c>
+      <c r="B26" s="2">
+        <v>12359580</v>
+      </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="1"/>
-        <v>-12247125</v>
+        <v>112455</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>43038320</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1052,7 +1055,7 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-12359580</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3F0E70-4C87-49DB-87A1-16E0C7865921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8B2713-D24D-4162-99EB-0849E84519C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,32 +1050,38 @@
       <c r="A27" s="1">
         <v>44830</v>
       </c>
+      <c r="B27" s="2">
+        <v>12437475</v>
+      </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>-12359580</v>
+        <v>77895</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>43349900</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44831</v>
       </c>
+      <c r="B28" s="2">
+        <v>12507075</v>
+      </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69600</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>43628300</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1087,7 +1093,7 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-12507075</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8B2713-D24D-4162-99EB-0849E84519C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D50E12-EB4C-4890-8565-255CB5C94049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,16 +1088,19 @@
       <c r="A29" s="1">
         <v>44832</v>
       </c>
+      <c r="B29" s="2">
+        <v>12572453</v>
+      </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="1"/>
-        <v>-12507075</v>
+        <v>65378</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>43889812</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,7 +1112,7 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-12572453</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="2"/>

--- a/Dota 2/Prize Pools.xlsx
+++ b/Dota 2/Prize Pools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel_Projects\Dota 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D50E12-EB4C-4890-8565-255CB5C94049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B735BDBB-2922-4383-AA23-21A3952B5019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA7F05D-3194-4C96-9464-315E6F960818}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,16 +1107,19 @@
       <c r="A30" s="1">
         <v>44833</v>
       </c>
+      <c r="B30" s="2">
+        <v>12646856</v>
+      </c>
       <c r="C30" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="1"/>
-        <v>-12572453</v>
+        <v>74403</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="2"/>
-        <v>-6400000</v>
+        <v>44187424</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1128,7 +1131,7 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-12646856</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="2"/>
